--- a/PreDisulfideBond/SSBOND-Result-2CBA/2CBA.pdb.xlsx
+++ b/PreDisulfideBond/SSBOND-Result-2CBA/2CBA.pdb.xlsx
@@ -396,7 +396,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRPA123-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -406,7 +406,7 @@
         <v>-32.0042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6009</v>
+        <v>-0.1785</v>
       </c>
     </row>
     <row r="3">
@@ -415,7 +415,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HISA96-TRPA245</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -425,7 +425,7 @@
         <v>-64.5042</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5238</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="4">
@@ -434,7 +434,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALAA65-HISA94</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -444,7 +444,7 @@
         <v>-44.0935</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2943</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="5">
@@ -453,7 +453,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALAA54-ALAA77</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -463,7 +463,7 @@
         <v>-41.2027</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.0338</v>
+        <v>-0.3615</v>
       </c>
     </row>
     <row r="6">
@@ -472,7 +472,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TYRA40-LYSA261</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -482,7 +482,7 @@
         <v>-69.4205</v>
       </c>
       <c r="E6" t="n">
-        <v>0.096</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HISA17-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -501,7 +501,7 @@
         <v>-24.445</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0548</v>
+        <v>-0.5527</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TYRA114-PHEA147</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -520,7 +520,7 @@
         <v>-45.7049</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0236</v>
+        <v>1.1479</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +529,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASPA190-PHEA260</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -539,7 +539,7 @@
         <v>-55.083</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0552</v>
+        <v>-0.4088</v>
       </c>
     </row>
     <row r="10">
@@ -548,7 +548,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TYRA88-HISA122</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -558,7 +558,7 @@
         <v>-46.0772</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2097</v>
+        <v>1.427</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +567,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TYRA128-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -577,7 +577,7 @@
         <v>-24.445</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4338</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SERA99-VALA242</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -596,7 +596,7 @@
         <v>-63.9916</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5467</v>
+        <v>-0.3239</v>
       </c>
     </row>
     <row r="13">
@@ -605,7 +605,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRPA97-ALAA116</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -615,7 +615,7 @@
         <v>-38.8201</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5145</v>
+        <v>0.3228</v>
       </c>
     </row>
     <row r="14">
@@ -624,7 +624,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>THRA169-GLUA234</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -634,7 +634,7 @@
         <v>-54.1588</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.475</v>
+        <v>-0.1411</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SERA105-GLUA117</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -653,7 +653,7 @@
         <v>-33.0893</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.2555</v>
+        <v>-0.1362</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VALA218-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -672,7 +672,7 @@
         <v>-19.3885</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1686</v>
+        <v>-0.0837</v>
       </c>
     </row>
     <row r="17">
@@ -681,7 +681,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VALA31-LEUA251</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -691,7 +691,7 @@
         <v>-69.3639</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.008500000000000001</v>
+        <v>0.1811</v>
       </c>
     </row>
     <row r="18">
@@ -700,7 +700,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASPA72-ARGA89</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -710,7 +710,7 @@
         <v>-37.433</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.503</v>
+        <v>-1.0832</v>
       </c>
     </row>
     <row r="19">
@@ -719,7 +719,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TYRA194-ILEA256</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -729,7 +729,7 @@
         <v>-53.5695</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4034</v>
+        <v>-0.8415</v>
       </c>
     </row>
     <row r="20">
@@ -738,7 +738,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALAA153-SERA219</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -748,7 +748,7 @@
         <v>-54.3492</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0511</v>
+        <v>0.3025</v>
       </c>
     </row>
     <row r="21">
@@ -757,7 +757,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TYRA51-ARGA182</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -767,7 +767,7 @@
         <v>-62.8986</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.7828000000000001</v>
+        <v>-0.1709</v>
       </c>
     </row>
     <row r="22">
@@ -776,7 +776,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ASNA67-GLNA92</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -786,7 +786,7 @@
         <v>-42.2426</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.8263</v>
+        <v>-0.4404</v>
       </c>
     </row>
     <row r="23">
@@ -795,7 +795,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TYRA128-LYSA133</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -805,7 +805,7 @@
         <v>-22.1713</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.8028</v>
+        <v>-0.7643</v>
       </c>
     </row>
     <row r="24">
@@ -814,7 +814,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>THRA199-ARGA246</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -824,7 +824,7 @@
         <v>-50.1152</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.0371</v>
+        <v>-1.5265</v>
       </c>
     </row>
     <row r="25">
@@ -833,7 +833,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ALAA38-ALAA258</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -843,7 +843,7 @@
         <v>-69.3639</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.2134</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRPA16-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -862,7 +862,7 @@
         <v>-26.3674</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9277</v>
+        <v>0.7462</v>
       </c>
     </row>
     <row r="27">
@@ -871,7 +871,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ILEA167-ALAA174</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -881,7 +881,7 @@
         <v>-26.3674</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.2937</v>
+        <v>-0.2515</v>
       </c>
     </row>
     <row r="28">
@@ -890,7 +890,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPA32-ALAA248</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -900,7 +900,7 @@
         <v>-69.13509999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.8</v>
+        <v>-0.3285</v>
       </c>
     </row>
     <row r="29">
@@ -909,7 +909,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRPA123-PHEA131</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -919,7 +919,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.5183</v>
+        <v>-1.1012</v>
       </c>
     </row>
     <row r="30">
@@ -928,7 +928,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPA72-ILEA91</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -938,7 +938,7 @@
         <v>-38.8201</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.2486</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="31">
@@ -947,7 +947,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ALAA115-VALA150</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -957,7 +957,7 @@
         <v>-46.4387</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3724</v>
+        <v>0.5358000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -966,7 +966,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GLUA106-TRPA245</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -976,7 +976,7 @@
         <v>-63.6378</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.3161</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="33">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASNA232-GLUA236</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -995,7 +995,7 @@
         <v>-19.3885</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.6755</v>
+        <v>-0.9294</v>
       </c>
     </row>
     <row r="34">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASNA67-HISA94</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1014,7 +1014,7 @@
         <v>-43.2024</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3848</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="35">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LEUA60-SERA173</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1033,7 +1033,7 @@
         <v>-61.0553</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0219</v>
+        <v>-0.2649</v>
       </c>
     </row>
     <row r="36">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TYRA88-ALAA142</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1052,7 +1052,7 @@
         <v>-51.8466</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.3445</v>
+        <v>2.1728</v>
       </c>
     </row>
     <row r="37">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HISA17-LYSA24</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1071,7 +1071,7 @@
         <v>-26.3674</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.4185</v>
+        <v>-0.7213000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SERA105-PHEA147</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1090,7 +1090,7 @@
         <v>-48.7125</v>
       </c>
       <c r="E38" t="n">
-        <v>0.091</v>
+        <v>1.0929</v>
       </c>
     </row>
     <row r="39">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SERA166-ALAA174</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1109,7 +1109,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.845</v>
+        <v>-0.0583</v>
       </c>
     </row>
     <row r="40">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ILEA167-LYSA172</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1128,7 +1128,7 @@
         <v>-22.1713</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3549</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PHEA231-META241</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1147,7 +1147,7 @@
         <v>-30.8155</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0204</v>
+        <v>0.3799</v>
       </c>
     </row>
     <row r="42">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ILEA59-PHEA176</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1166,7 +1166,7 @@
         <v>-61.4891</v>
       </c>
       <c r="E42" t="n">
-        <v>1.3843</v>
+        <v>-1.0052</v>
       </c>
     </row>
     <row r="43">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PHEA93-LEUA120</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1185,7 +1185,7 @@
         <v>-43.2024</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4038</v>
+        <v>0.7106</v>
       </c>
     </row>
     <row r="44">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TYRA7-ASNA244</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1204,7 +1204,7 @@
         <v>-70.29219999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.4116</v>
+        <v>1.1378</v>
       </c>
     </row>
     <row r="45">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ASNA61-ILEA167</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1223,7 +1223,7 @@
         <v>-60.2577</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.3753</v>
+        <v>-0.7305</v>
       </c>
     </row>
     <row r="46">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRPA5-TRPA16</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1242,7 +1242,7 @@
         <v>-32.0042</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0035</v>
+        <v>-0.1022</v>
       </c>
     </row>
     <row r="47">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VALA161-LYSA225</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1261,7 +1261,7 @@
         <v>-53.9654</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8856000000000001</v>
+        <v>-0.0914</v>
       </c>
     </row>
     <row r="48">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>THRA35-ASPA110</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1280,7 +1280,7 @@
         <v>-55.9434</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2081</v>
+        <v>0.5369</v>
       </c>
     </row>
     <row r="49">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ASPA41-LYSA257</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1299,7 +1299,7 @@
         <v>-69.13509999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1716</v>
+        <v>-0.0701</v>
       </c>
     </row>
     <row r="50">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VALA150-SERA220</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1318,7 +1318,7 @@
         <v>-55.083</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8586</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SERA99-ASPA243</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1337,7 +1337,7 @@
         <v>-64.07850000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.1529</v>
+        <v>0.5046</v>
       </c>
     </row>
     <row r="52">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PHEA95-ALAA116</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1356,7 +1356,7 @@
         <v>-40.0682</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2286</v>
+        <v>-0.4047</v>
       </c>
     </row>
     <row r="53">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VALA78-THRA87</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1375,7 +1375,7 @@
         <v>-29.5016</v>
       </c>
       <c r="E53" t="n">
-        <v>0.636</v>
+        <v>0.5689</v>
       </c>
     </row>
     <row r="54">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GLUA106-GLUA117</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1394,7 +1394,7 @@
         <v>-32.0042</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.2365</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="55">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GLNA28-GLNA249</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1413,7 +1413,7 @@
         <v>-69.4205</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.0363</v>
+        <v>0.8541</v>
       </c>
     </row>
     <row r="56">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SERA197-GLUA205</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1432,7 +1432,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.4614</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="57">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GLUA26-LYSA252</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1451,7 +1451,7 @@
         <v>-69.6995</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5238</v>
+        <v>0.7493</v>
       </c>
     </row>
     <row r="58">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ARGA27-GLUA205</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1470,7 +1470,7 @@
         <v>-66.72199999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.3652</v>
+        <v>-0.0101</v>
       </c>
     </row>
     <row r="59">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ASPA75-VALA78</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1489,7 +1489,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1355</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="60">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TYRA51-ALAA77</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1508,7 +1508,7 @@
         <v>-42.7317</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6506999999999999</v>
+        <v>0.2569</v>
       </c>
     </row>
     <row r="61">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VALA135-LEUA204</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1527,7 +1527,7 @@
         <v>-54.9035</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7945</v>
+        <v>0.3998</v>
       </c>
     </row>
     <row r="62">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LYSA154-LEUA157</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1546,7 +1546,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.4394</v>
+        <v>0.2542</v>
       </c>
     </row>
     <row r="63">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LYSA80-THRA87</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1565,7 +1565,7 @@
         <v>-26.3674</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.0829</v>
+        <v>0.4991</v>
       </c>
     </row>
     <row r="64">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ARGA227-VALA242</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1584,7 +1584,7 @@
         <v>-35.8721</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3176</v>
+        <v>-0.1272</v>
       </c>
     </row>
     <row r="65">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ASNA124-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1603,7 +1603,7 @@
         <v>-30.8155</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6456</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="66">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TYRA191-ILEA210</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1622,7 +1622,7 @@
         <v>-38.8201</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4556</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="67">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LEUA44-SERA259</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1641,7 +1641,7 @@
         <v>-69.0772</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1355</v>
+        <v>-0.1714</v>
       </c>
     </row>
     <row r="68">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VALA135-CYSA206</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1660,7 +1660,7 @@
         <v>-55.2599</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.2712</v>
+        <v>1.1181</v>
       </c>
     </row>
     <row r="69">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LEUA57-ASPA71</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1679,7 +1679,7 @@
         <v>-35.0117</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1466</v>
+        <v>-0.6659</v>
       </c>
     </row>
     <row r="70">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ARGA58-SERA173</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1698,7 +1698,7 @@
         <v>-61.274</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3676</v>
+        <v>-0.2127</v>
       </c>
     </row>
     <row r="71">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRPA192-ILEA256</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1717,7 +1717,7 @@
         <v>-53.9654</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.112</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="72">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SERA105-LYSA113</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1736,7 +1736,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4978</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="73">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TYRA114-LYSA149</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1755,7 +1755,7 @@
         <v>-46.4387</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5603</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="74">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ASPA190-LYSA213</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1774,7 +1774,7 @@
         <v>-41.2027</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.4705</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="75">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SERA29-SERA197</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1793,7 +1793,7 @@
         <v>-66.001</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LYSA154-VALA218</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1812,7 +1812,7 @@
         <v>-53.9654</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.8401</v>
+        <v>0.9635</v>
       </c>
     </row>
     <row r="77">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ASPA190-SERA259</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1831,7 +1831,7 @@
         <v>-54.9035</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.611</v>
+        <v>-0.2305</v>
       </c>
     </row>
     <row r="78">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SERA188-GLUA214</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1850,7 +1850,7 @@
         <v>-42.7317</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7985</v>
+        <v>0.8044</v>
       </c>
     </row>
     <row r="79">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ASNA61-PHEA66</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1869,7 +1869,7 @@
         <v>-22.1713</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5446</v>
+        <v>-1.4226</v>
       </c>
     </row>
     <row r="80">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PHEA20-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1888,7 +1888,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4212</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="81">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ILEA59-VALA68</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1907,7 +1907,7 @@
         <v>-29.5016</v>
       </c>
       <c r="E81" t="n">
-        <v>1.2352</v>
+        <v>-1.2357</v>
       </c>
     </row>
     <row r="82">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LEUA47-LEUA189</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1926,7 +1926,7 @@
         <v>-63.9041</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2196</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GLUA69-GLNA92</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1945,7 +1945,7 @@
         <v>-41.2027</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.0374</v>
+        <v>-0.1507</v>
       </c>
     </row>
     <row r="84">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>THRA108-LYSA113</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1964,7 +1964,7 @@
         <v>-22.1713</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1986</v>
+        <v>-0.0717</v>
       </c>
     </row>
     <row r="85">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>HISA119-VALA143</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1983,7 +1983,7 @@
         <v>-41.7335</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2277</v>
+        <v>-1.1633</v>
       </c>
     </row>
     <row r="86">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ASPA75-ARGA89</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2002,7 +2002,7 @@
         <v>-35.0117</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.944</v>
+        <v>-1.1882</v>
       </c>
     </row>
     <row r="87">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VALA161-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2021,7 +2021,7 @@
         <v>-53.3667</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7682</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="88">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TYRA51-ALAA54</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2040,7 +2040,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.6665</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="89">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>THRA193-ILEA210</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2059,7 +2059,7 @@
         <v>-37.433</v>
       </c>
       <c r="E89" t="n">
-        <v>0.431</v>
+        <v>-0.3091</v>
       </c>
     </row>
     <row r="90">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ASNA230-GLUA238</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2078,7 +2078,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.3098</v>
+        <v>-0.976</v>
       </c>
     </row>
     <row r="91">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HISA64-ASNA244</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2097,7 +2097,7 @@
         <v>-66.8614</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.5882</v>
+        <v>0.4795</v>
       </c>
     </row>
     <row r="92">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LEUA204-CYSA206</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2116,7 +2116,7 @@
         <v>-10.7442</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.5233</v>
+        <v>-0.7183</v>
       </c>
     </row>
     <row r="93">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SERA56-PHEA179</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2135,7 +2135,7 @@
         <v>-62.1128</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3369</v>
+        <v>-0.2374</v>
       </c>
     </row>
     <row r="94">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LEUA90-HISA122</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2154,7 +2154,7 @@
         <v>-45.3212</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.3375</v>
+        <v>-0.7418</v>
       </c>
     </row>
     <row r="95">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ASPA32-LYSA111</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2173,7 +2173,7 @@
         <v>-56.5914</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.6143</v>
+        <v>-0.3486</v>
       </c>
     </row>
     <row r="96">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SERA219-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2192,7 +2192,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.06660000000000001</v>
+        <v>-0.1665</v>
       </c>
     </row>
     <row r="97">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TYRA191-LYSA213</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2211,7 +2211,7 @@
         <v>-40.6484</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.0801</v>
+        <v>-0.3435</v>
       </c>
     </row>
     <row r="98">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LEUA148-VALA218</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2230,7 +2230,7 @@
         <v>-55.083</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1152</v>
+        <v>-0.09130000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ASPA34-THRA37</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2249,7 +2249,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E99" t="n">
-        <v>0.915</v>
+        <v>-0.4959</v>
       </c>
     </row>
     <row r="100">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SERA29-THRA199</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2268,7 +2268,7 @@
         <v>-66.1485</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.1955</v>
+        <v>-0.9871</v>
       </c>
     </row>
     <row r="101">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TYRA191-LEUA212</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2287,7 +2287,7 @@
         <v>-40.0682</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2965</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="102">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ALAA77-LEUA90</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2306,7 +2306,7 @@
         <v>-34.0875</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.5306</v>
+        <v>-0.6721</v>
       </c>
     </row>
     <row r="103">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GLNA53-LYSA76</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2325,7 +2325,7 @@
         <v>-41.2027</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.2292</v>
+        <v>0.4855</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LEUA204-CYSA206</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2385,7 +2385,7 @@
         <v>-10.7442</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5233</v>
+        <v>-0.7183</v>
       </c>
     </row>
     <row r="3">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASPA75-VALA78</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2404,7 +2404,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1355</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="4">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHEA20-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2423,7 +2423,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4212</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="5">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASPA34-THRA37</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2442,7 +2442,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E5" t="n">
-        <v>0.915</v>
+        <v>-0.4959</v>
       </c>
     </row>
     <row r="6">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SERA219-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2461,7 +2461,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06660000000000001</v>
+        <v>-0.1665</v>
       </c>
     </row>
     <row r="7">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TYRA51-ALAA54</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2480,7 +2480,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6665</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="8">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LYSA154-LEUA157</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2499,7 +2499,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.4394</v>
+        <v>0.2542</v>
       </c>
     </row>
     <row r="9">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASNA232-GLUA236</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2518,7 +2518,7 @@
         <v>-19.3885</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.6755</v>
+        <v>-0.9294</v>
       </c>
     </row>
     <row r="10">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VALA218-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2537,7 +2537,7 @@
         <v>-19.3885</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1686</v>
+        <v>-0.0837</v>
       </c>
     </row>
     <row r="11">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ILEA167-LYSA172</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2556,7 +2556,7 @@
         <v>-22.1713</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3549</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="12">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ASNA61-PHEA66</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2575,7 +2575,7 @@
         <v>-22.1713</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5446</v>
+        <v>-1.4226</v>
       </c>
     </row>
     <row r="13">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>THRA108-LYSA113</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2594,7 +2594,7 @@
         <v>-22.1713</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1986</v>
+        <v>-0.0717</v>
       </c>
     </row>
     <row r="14">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TYRA128-LYSA133</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2613,7 +2613,7 @@
         <v>-22.1713</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8028</v>
+        <v>-0.7643</v>
       </c>
     </row>
     <row r="15">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TYRA128-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2632,7 +2632,7 @@
         <v>-24.445</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4338</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="16">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HISA17-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2651,7 +2651,7 @@
         <v>-24.445</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0548</v>
+        <v>-0.5527</v>
       </c>
     </row>
     <row r="17">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRPA16-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2670,7 +2670,7 @@
         <v>-26.3674</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9277</v>
+        <v>0.7462</v>
       </c>
     </row>
     <row r="18">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HISA17-LYSA24</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2689,7 +2689,7 @@
         <v>-26.3674</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.4185</v>
+        <v>-0.7213000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ILEA167-ALAA174</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2708,7 +2708,7 @@
         <v>-26.3674</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2937</v>
+        <v>-0.2515</v>
       </c>
     </row>
     <row r="20">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LYSA80-THRA87</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2727,7 +2727,7 @@
         <v>-26.3674</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.0829</v>
+        <v>0.4991</v>
       </c>
     </row>
     <row r="21">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SERA197-GLUA205</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2746,7 +2746,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.4614</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="22">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SERA166-ALAA174</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2765,7 +2765,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.845</v>
+        <v>-0.0583</v>
       </c>
     </row>
     <row r="23">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRPA123-PHEA131</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2784,7 +2784,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5183</v>
+        <v>-1.1012</v>
       </c>
     </row>
     <row r="24">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASNA230-GLUA238</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2803,7 +2803,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3098</v>
+        <v>-0.976</v>
       </c>
     </row>
     <row r="25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SERA105-LYSA113</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2822,7 +2822,7 @@
         <v>-28.0327</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4978</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="26">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VALA78-THRA87</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2841,7 +2841,7 @@
         <v>-29.5016</v>
       </c>
       <c r="E26" t="n">
-        <v>0.636</v>
+        <v>0.5689</v>
       </c>
     </row>
     <row r="27">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ILEA59-VALA68</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2860,7 +2860,7 @@
         <v>-29.5016</v>
       </c>
       <c r="E27" t="n">
-        <v>1.2352</v>
+        <v>-1.2357</v>
       </c>
     </row>
     <row r="28">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASNA124-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2879,7 +2879,7 @@
         <v>-30.8155</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6456</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="29">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHEA231-META241</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -2898,7 +2898,7 @@
         <v>-30.8155</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0204</v>
+        <v>0.3799</v>
       </c>
     </row>
     <row r="30">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRPA5-TRPA16</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2917,7 +2917,7 @@
         <v>-32.0042</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0035</v>
+        <v>-0.1022</v>
       </c>
     </row>
     <row r="31">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRPA123-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2936,7 +2936,7 @@
         <v>-32.0042</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6009</v>
+        <v>-0.1785</v>
       </c>
     </row>
     <row r="32">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GLUA106-GLUA117</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2955,7 +2955,7 @@
         <v>-32.0042</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.2365</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="33">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SERA105-GLUA117</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -2974,7 +2974,7 @@
         <v>-33.0893</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.2555</v>
+        <v>-0.1362</v>
       </c>
     </row>
     <row r="34">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ALAA77-LEUA90</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2993,7 +2993,7 @@
         <v>-34.0875</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5306</v>
+        <v>-0.6721</v>
       </c>
     </row>
     <row r="35">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASPA75-ARGA89</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3012,7 +3012,7 @@
         <v>-35.0117</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.944</v>
+        <v>-1.1882</v>
       </c>
     </row>
     <row r="36">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LEUA57-ASPA71</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3031,7 +3031,7 @@
         <v>-35.0117</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1466</v>
+        <v>-0.6659</v>
       </c>
     </row>
     <row r="37">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ARGA227-VALA242</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3050,7 +3050,7 @@
         <v>-35.8721</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3176</v>
+        <v>-0.1272</v>
       </c>
     </row>
     <row r="38">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASPA72-ARGA89</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3069,7 +3069,7 @@
         <v>-37.433</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.503</v>
+        <v>-1.0832</v>
       </c>
     </row>
     <row r="39">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>THRA193-ILEA210</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3088,7 +3088,7 @@
         <v>-37.433</v>
       </c>
       <c r="E39" t="n">
-        <v>0.431</v>
+        <v>-0.3091</v>
       </c>
     </row>
     <row r="40">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TYRA191-ILEA210</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3107,7 +3107,7 @@
         <v>-38.8201</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4556</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="41">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRPA97-ALAA116</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3126,7 +3126,7 @@
         <v>-38.8201</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5145</v>
+        <v>0.3228</v>
       </c>
     </row>
     <row r="42">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ASPA72-ILEA91</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3145,7 +3145,7 @@
         <v>-38.8201</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.2486</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="43">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TYRA191-LEUA212</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3164,7 +3164,7 @@
         <v>-40.0682</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2965</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="44">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PHEA95-ALAA116</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3183,7 +3183,7 @@
         <v>-40.0682</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2286</v>
+        <v>-0.4047</v>
       </c>
     </row>
     <row r="45">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TYRA191-LYSA213</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3202,7 +3202,7 @@
         <v>-40.6484</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.0801</v>
+        <v>-0.3435</v>
       </c>
     </row>
     <row r="46">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GLUA69-GLNA92</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3221,7 +3221,7 @@
         <v>-41.2027</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.0374</v>
+        <v>-0.1507</v>
       </c>
     </row>
     <row r="47">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GLNA53-LYSA76</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -3240,7 +3240,7 @@
         <v>-41.2027</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.2292</v>
+        <v>0.4855</v>
       </c>
     </row>
     <row r="48">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ALAA54-ALAA77</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3259,7 +3259,7 @@
         <v>-41.2027</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.0338</v>
+        <v>-0.3615</v>
       </c>
     </row>
     <row r="49">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ASPA190-LYSA213</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3278,7 +3278,7 @@
         <v>-41.2027</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.4705</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="50">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HISA119-VALA143</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3297,7 +3297,7 @@
         <v>-41.7335</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2277</v>
+        <v>-1.1633</v>
       </c>
     </row>
     <row r="51">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASNA67-GLNA92</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3316,7 +3316,7 @@
         <v>-42.2426</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.8263</v>
+        <v>-0.4404</v>
       </c>
     </row>
     <row r="52">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TYRA51-ALAA77</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -3335,7 +3335,7 @@
         <v>-42.7317</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.6506999999999999</v>
+        <v>0.2569</v>
       </c>
     </row>
     <row r="53">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SERA188-GLUA214</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -3354,7 +3354,7 @@
         <v>-42.7317</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.7985</v>
+        <v>0.8044</v>
       </c>
     </row>
     <row r="54">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ASNA67-HISA94</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3373,7 +3373,7 @@
         <v>-43.2024</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3848</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="55">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PHEA93-LEUA120</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -3392,7 +3392,7 @@
         <v>-43.2024</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4038</v>
+        <v>0.7106</v>
       </c>
     </row>
     <row r="56">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ALAA65-HISA94</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3411,7 +3411,7 @@
         <v>-44.0935</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2943</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="57">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LEUA90-HISA122</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3430,7 +3430,7 @@
         <v>-45.3212</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3375</v>
+        <v>-0.7418</v>
       </c>
     </row>
     <row r="58">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TYRA114-PHEA147</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3449,7 +3449,7 @@
         <v>-45.7049</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0236</v>
+        <v>1.1479</v>
       </c>
     </row>
     <row r="59">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TYRA88-HISA122</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3468,7 +3468,7 @@
         <v>-46.0772</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2097</v>
+        <v>1.427</v>
       </c>
     </row>
     <row r="60">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TYRA114-LYSA149</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3487,7 +3487,7 @@
         <v>-46.4387</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5603</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="61">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ALAA115-VALA150</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -3506,7 +3506,7 @@
         <v>-46.4387</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3724</v>
+        <v>0.5358000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SERA105-PHEA147</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -3525,7 +3525,7 @@
         <v>-48.7125</v>
       </c>
       <c r="E62" t="n">
-        <v>0.091</v>
+        <v>1.0929</v>
       </c>
     </row>
     <row r="63">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>THRA199-ARGA246</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3544,7 +3544,7 @@
         <v>-50.1152</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.0371</v>
+        <v>-1.5265</v>
       </c>
     </row>
     <row r="64">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TYRA88-ALAA142</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3563,7 +3563,7 @@
         <v>-51.8466</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3445</v>
+        <v>2.1728</v>
       </c>
     </row>
     <row r="65">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VALA161-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3582,7 +3582,7 @@
         <v>-53.3667</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7682</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="66">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TYRA194-ILEA256</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3601,7 +3601,7 @@
         <v>-53.5695</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4034</v>
+        <v>-0.8415</v>
       </c>
     </row>
     <row r="67">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRPA192-ILEA256</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3620,7 +3620,7 @@
         <v>-53.9654</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.112</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="68">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VALA161-LYSA225</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3639,7 +3639,7 @@
         <v>-53.9654</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8856000000000001</v>
+        <v>-0.0914</v>
       </c>
     </row>
     <row r="69">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LYSA154-VALA218</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3658,7 +3658,7 @@
         <v>-53.9654</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.8401</v>
+        <v>0.9635</v>
       </c>
     </row>
     <row r="70">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>THRA169-GLUA234</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3677,7 +3677,7 @@
         <v>-54.1588</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.475</v>
+        <v>-0.1411</v>
       </c>
     </row>
     <row r="71">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ALAA153-SERA219</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3696,7 +3696,7 @@
         <v>-54.3492</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0511</v>
+        <v>0.3025</v>
       </c>
     </row>
     <row r="72">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VALA135-LEUA204</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3715,7 +3715,7 @@
         <v>-54.9035</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7945</v>
+        <v>0.3998</v>
       </c>
     </row>
     <row r="73">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ASPA190-SERA259</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3734,7 +3734,7 @@
         <v>-54.9035</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.611</v>
+        <v>-0.2305</v>
       </c>
     </row>
     <row r="74">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ASPA190-PHEA260</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3753,7 +3753,7 @@
         <v>-55.083</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0552</v>
+        <v>-0.4088</v>
       </c>
     </row>
     <row r="75">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VALA150-SERA220</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3772,7 +3772,7 @@
         <v>-55.083</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8586</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LEUA148-VALA218</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3791,7 +3791,7 @@
         <v>-55.083</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1152</v>
+        <v>-0.09130000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VALA135-CYSA206</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3810,7 +3810,7 @@
         <v>-55.2599</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2712</v>
+        <v>1.1181</v>
       </c>
     </row>
     <row r="78">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>THRA35-ASPA110</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3829,7 +3829,7 @@
         <v>-55.9434</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2081</v>
+        <v>0.5369</v>
       </c>
     </row>
     <row r="79">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ASPA32-LYSA111</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3848,7 +3848,7 @@
         <v>-56.5914</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6143</v>
+        <v>-0.3486</v>
       </c>
     </row>
     <row r="80">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ASNA61-ILEA167</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3867,7 +3867,7 @@
         <v>-60.2577</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3753</v>
+        <v>-0.7305</v>
       </c>
     </row>
     <row r="81">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LEUA60-SERA173</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3886,7 +3886,7 @@
         <v>-61.0553</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0219</v>
+        <v>-0.2649</v>
       </c>
     </row>
     <row r="82">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ARGA58-SERA173</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3905,7 +3905,7 @@
         <v>-61.274</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3676</v>
+        <v>-0.2127</v>
       </c>
     </row>
     <row r="83">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ILEA59-PHEA176</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3924,7 +3924,7 @@
         <v>-61.4891</v>
       </c>
       <c r="E83" t="n">
-        <v>1.3843</v>
+        <v>-1.0052</v>
       </c>
     </row>
     <row r="84">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SERA56-PHEA179</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3943,7 +3943,7 @@
         <v>-62.1128</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3369</v>
+        <v>-0.2374</v>
       </c>
     </row>
     <row r="85">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TYRA51-ARGA182</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3962,7 +3962,7 @@
         <v>-62.8986</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.7828000000000001</v>
+        <v>-0.1709</v>
       </c>
     </row>
     <row r="86">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GLUA106-TRPA245</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3981,7 +3981,7 @@
         <v>-63.6378</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.3161</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="87">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LEUA47-LEUA189</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -4000,7 +4000,7 @@
         <v>-63.9041</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2196</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SERA99-VALA242</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -4019,7 +4019,7 @@
         <v>-63.9916</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5467</v>
+        <v>-0.3239</v>
       </c>
     </row>
     <row r="89">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SERA99-ASPA243</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4038,7 +4038,7 @@
         <v>-64.07850000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1529</v>
+        <v>0.5046</v>
       </c>
     </row>
     <row r="90">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HISA96-TRPA245</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4057,7 +4057,7 @@
         <v>-64.5042</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5238</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="91">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SERA29-SERA197</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4076,7 +4076,7 @@
         <v>-66.001</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.2132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SERA29-THRA199</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -4095,7 +4095,7 @@
         <v>-66.1485</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.1955</v>
+        <v>-0.9871</v>
       </c>
     </row>
     <row r="93">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ARGA27-GLUA205</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4114,7 +4114,7 @@
         <v>-66.72199999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.3652</v>
+        <v>-0.0101</v>
       </c>
     </row>
     <row r="94">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HISA64-ASNA244</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4133,7 +4133,7 @@
         <v>-66.8614</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.5882</v>
+        <v>0.4795</v>
       </c>
     </row>
     <row r="95">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LEUA44-SERA259</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4152,7 +4152,7 @@
         <v>-69.0772</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1355</v>
+        <v>-0.1714</v>
       </c>
     </row>
     <row r="96">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ASPA41-LYSA257</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4171,7 +4171,7 @@
         <v>-69.13509999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1716</v>
+        <v>-0.0701</v>
       </c>
     </row>
     <row r="97">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ASPA32-ALAA248</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4190,7 +4190,7 @@
         <v>-69.13509999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.8</v>
+        <v>-0.3285</v>
       </c>
     </row>
     <row r="98">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>VALA31-LEUA251</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4209,7 +4209,7 @@
         <v>-69.3639</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.008500000000000001</v>
+        <v>0.1811</v>
       </c>
     </row>
     <row r="99">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ALAA38-ALAA258</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4228,7 +4228,7 @@
         <v>-69.3639</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.2134</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="100">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TYRA40-LYSA261</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4247,7 +4247,7 @@
         <v>-69.4205</v>
       </c>
       <c r="E100" t="n">
-        <v>0.096</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="101">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GLNA28-GLNA249</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4266,7 +4266,7 @@
         <v>-69.4205</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.0363</v>
+        <v>0.8541</v>
       </c>
     </row>
     <row r="102">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GLUA26-LYSA252</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4285,7 +4285,7 @@
         <v>-69.6995</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.5238</v>
+        <v>0.7493</v>
       </c>
     </row>
     <row r="103">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TYRA7-ASNA244</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4304,7 +4304,7 @@
         <v>-70.29219999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>-2.4116</v>
+        <v>1.1378</v>
       </c>
     </row>
   </sheetData>
@@ -4350,1142 +4350,1142 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ILEA59-PHEA176</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.901</v>
+        <v>0.919</v>
       </c>
       <c r="D2" t="n">
-        <v>-61.4891</v>
+        <v>-51.8466</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3843</v>
+        <v>2.1728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ILEA59-VALA68</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.663</v>
+        <v>0.983</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.5016</v>
+        <v>-46.0772</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2352</v>
+        <v>1.427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRPA5-TRPA16</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.869</v>
+        <v>0.916</v>
       </c>
       <c r="D4" t="n">
-        <v>-32.0042</v>
+        <v>-22.1713</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0035</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRPA16-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.987</v>
       </c>
       <c r="D5" t="n">
-        <v>-26.3674</v>
+        <v>-45.7049</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9277</v>
+        <v>1.1479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASPA34-THRA37</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.533</v>
+        <v>0.88</v>
       </c>
       <c r="D6" t="n">
-        <v>-15.8008</v>
+        <v>-70.29219999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.915</v>
+        <v>1.1378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VALA161-LYSA225</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.867</v>
+        <v>0.724</v>
       </c>
       <c r="D7" t="n">
-        <v>-53.9654</v>
+        <v>-55.2599</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8856000000000001</v>
+        <v>1.1181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VALA150-SERA220</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.845</v>
+        <v>0.918</v>
       </c>
       <c r="D8" t="n">
-        <v>-55.083</v>
+        <v>-48.7125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8586</v>
+        <v>1.0929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VALA161-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.625</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.3667</v>
+        <v>-53.9654</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7682</v>
+        <v>0.9635</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASNA124-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.735</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.8155</v>
+        <v>-69.4205</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6456</v>
+        <v>0.8541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VALA78-THRA87</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.825</v>
+        <v>0.679</v>
       </c>
       <c r="D11" t="n">
-        <v>-29.5016</v>
+        <v>-42.7317</v>
       </c>
       <c r="E11" t="n">
-        <v>0.636</v>
+        <v>0.8044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRPA123-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.997</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.0042</v>
+        <v>-69.6995</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6009</v>
+        <v>0.7493</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SERA99-VALA242</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.977</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>-63.9916</v>
+        <v>-26.3674</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5467</v>
+        <v>0.7462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HISA96-TRPA245</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.994</v>
+        <v>0.891</v>
       </c>
       <c r="D14" t="n">
-        <v>-64.5042</v>
+        <v>-43.2024</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5238</v>
+        <v>0.7106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TYRA191-ILEA210</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.733</v>
+        <v>0.825</v>
       </c>
       <c r="D15" t="n">
-        <v>-38.8201</v>
+        <v>-29.5016</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4556</v>
+        <v>0.5689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TYRA128-ALAA134</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.983</v>
+        <v>0.793</v>
       </c>
       <c r="D16" t="n">
-        <v>-24.445</v>
+        <v>-15.8008</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4338</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>THRA193-ILEA210</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.613</v>
+        <v>0.862</v>
       </c>
       <c r="D17" t="n">
-        <v>-37.433</v>
+        <v>-55.9434</v>
       </c>
       <c r="E17" t="n">
-        <v>0.431</v>
+        <v>0.5369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHEA93-LEUA120</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.891</v>
+        <v>0.93</v>
       </c>
       <c r="D18" t="n">
-        <v>-43.2024</v>
+        <v>-46.4387</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4038</v>
+        <v>0.5358000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ASNA67-HISA94</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.923</v>
+        <v>0.835</v>
       </c>
       <c r="D19" t="n">
-        <v>-43.2024</v>
+        <v>-64.07850000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3848</v>
+        <v>0.5046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALAA115-VALA150</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.93</v>
+        <v>0.758</v>
       </c>
       <c r="D20" t="n">
-        <v>-46.4387</v>
+        <v>-26.3674</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3724</v>
+        <v>0.4991</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ILEA167-LYSA172</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.916</v>
+        <v>0.502</v>
       </c>
       <c r="D21" t="n">
-        <v>-22.1713</v>
+        <v>-41.2027</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3549</v>
+        <v>0.4855</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SERA56-PHEA179</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.575</v>
+        <v>0.579</v>
       </c>
       <c r="D22" t="n">
-        <v>-62.1128</v>
+        <v>-66.8614</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3369</v>
+        <v>0.4795</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ARGA227-VALA242</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.756</v>
+        <v>0.735</v>
       </c>
       <c r="D23" t="n">
-        <v>-35.8721</v>
+        <v>-30.8155</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3176</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TYRA191-LEUA212</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.509</v>
+        <v>0.774</v>
       </c>
       <c r="D24" t="n">
-        <v>-40.0682</v>
+        <v>-54.9035</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2965</v>
+        <v>0.3998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LEUA47-LEUA189</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.66</v>
+        <v>0.914</v>
       </c>
       <c r="D25" t="n">
-        <v>-63.9041</v>
+        <v>-30.8155</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2196</v>
+        <v>0.3799</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>THRA35-ASPA110</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.862</v>
+        <v>0.666</v>
       </c>
       <c r="D26" t="n">
-        <v>-55.9434</v>
+        <v>-15.8008</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2081</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASPA41-LYSA257</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.857</v>
+        <v>0.975</v>
       </c>
       <c r="D27" t="n">
-        <v>-69.13509999999999</v>
+        <v>-38.8201</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1716</v>
+        <v>0.3228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LEUA44-SERA259</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.731</v>
+        <v>0.956</v>
       </c>
       <c r="D28" t="n">
-        <v>-69.0772</v>
+        <v>-54.3492</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1355</v>
+        <v>0.3025</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LEUA148-VALA218</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.55</v>
+        <v>0.733</v>
       </c>
       <c r="D29" t="n">
-        <v>-55.083</v>
+        <v>-38.8201</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1152</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TYRA40-LYSA261</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.988</v>
+        <v>0.825</v>
       </c>
       <c r="D30" t="n">
-        <v>-69.4205</v>
+        <v>-32.0042</v>
       </c>
       <c r="E30" t="n">
-        <v>0.096</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SERA105-PHEA147</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.918</v>
+        <v>0.788</v>
       </c>
       <c r="D31" t="n">
-        <v>-48.7125</v>
+        <v>-42.7317</v>
       </c>
       <c r="E31" t="n">
-        <v>0.091</v>
+        <v>0.2569</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASPA190-PHEA260</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.985</v>
+        <v>0.766</v>
       </c>
       <c r="D32" t="n">
-        <v>-55.083</v>
+        <v>-15.8008</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0552</v>
+        <v>0.2542</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HISA17-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.988</v>
+        <v>0.929</v>
       </c>
       <c r="D33" t="n">
-        <v>-24.445</v>
+        <v>-63.6378</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0548</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ALAA153-SERA219</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.956</v>
+        <v>0.509</v>
       </c>
       <c r="D34" t="n">
-        <v>-54.3492</v>
+        <v>-40.0682</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0511</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TYRA114-PHEA147</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.987</v>
+        <v>0.994</v>
       </c>
       <c r="D35" t="n">
-        <v>-45.7049</v>
+        <v>-64.5042</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0236</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LEUA60-SERA173</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.92</v>
+        <v>0.715</v>
       </c>
       <c r="D36" t="n">
-        <v>-61.0553</v>
+        <v>-53.9654</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0219</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PHEA231-META241</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.914</v>
+        <v>0.962</v>
       </c>
       <c r="D37" t="n">
-        <v>-30.8155</v>
+        <v>-69.3639</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0204</v>
+        <v>0.1811</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VALA31-LEUA251</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.962</v>
+        <v>0.702</v>
       </c>
       <c r="D38" t="n">
-        <v>-69.3639</v>
+        <v>-46.4387</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.008500000000000001</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SERA219-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>-15.8008</v>
+        <v>-28.0327</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.06660000000000001</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRPA192-ILEA256</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.715</v>
+        <v>0.623</v>
       </c>
       <c r="D40" t="n">
-        <v>-53.9654</v>
+        <v>-15.8008</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.112</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASPA75-VALA78</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.793</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>-15.8008</v>
+        <v>-38.8201</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1355</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LEUA57-ASPA71</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.724</v>
+        <v>0.945</v>
       </c>
       <c r="D42" t="n">
-        <v>-35.0117</v>
+        <v>-69.3639</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1466</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SERA99-ASPA243</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.835</v>
+        <v>0.66</v>
       </c>
       <c r="D43" t="n">
-        <v>-64.07850000000001</v>
+        <v>-63.9041</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1529</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VALA218-GLNA222</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.966</v>
+        <v>0.845</v>
       </c>
       <c r="D44" t="n">
-        <v>-19.3885</v>
+        <v>-55.083</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.1686</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SERA29-THRA199</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.53</v>
+        <v>0.983</v>
       </c>
       <c r="D45" t="n">
-        <v>-66.1485</v>
+        <v>-24.445</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1955</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>THRA108-LYSA113</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.66</v>
+        <v>0.625</v>
       </c>
       <c r="D46" t="n">
-        <v>-22.1713</v>
+        <v>-53.3667</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.1986</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TYRA88-HISA122</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.983</v>
+        <v>0.988</v>
       </c>
       <c r="D47" t="n">
-        <v>-46.0772</v>
+        <v>-69.4205</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.2097</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SERA29-SERA197</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="D48" t="n">
-        <v>-66.001</v>
+        <v>-28.0327</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.2132</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HISA119-VALA143</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.65</v>
+        <v>0.923</v>
       </c>
       <c r="D49" t="n">
-        <v>-41.7335</v>
+        <v>-43.2024</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.2277</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PHEA95-ALAA116</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.835</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>-40.0682</v>
+        <v>-66.001</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GLNA53-LYSA76</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.502</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>-41.2027</v>
+        <v>-66.72199999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2292</v>
+        <v>-0.0101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VALA135-CYSA206</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.724</v>
+        <v>0.992</v>
       </c>
       <c r="D52" t="n">
-        <v>-55.2599</v>
+        <v>-44.0935</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2712</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ILEA167-ALAA174</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.916</v>
       </c>
       <c r="D53" t="n">
-        <v>-26.3674</v>
+        <v>-28.0327</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2937</v>
+        <v>-0.0583</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ALAA65-HISA94</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.992</v>
+        <v>0.857</v>
       </c>
       <c r="D54" t="n">
-        <v>-44.0935</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2943</v>
+        <v>-0.0701</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ASNA230-GLUA238</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.597</v>
+        <v>0.66</v>
       </c>
       <c r="D55" t="n">
-        <v>-28.0327</v>
+        <v>-22.1713</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3098</v>
+        <v>-0.0717</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LEUA90-HISA122</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.572</v>
+        <v>0.966</v>
       </c>
       <c r="D56" t="n">
-        <v>-45.3212</v>
+        <v>-19.3885</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3375</v>
+        <v>-0.0837</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TYRA88-ALAA142</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.919</v>
+        <v>0.55</v>
       </c>
       <c r="D57" t="n">
-        <v>-51.8466</v>
+        <v>-55.083</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3445</v>
+        <v>-0.09130000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ARGA58-SERA173</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.716</v>
+        <v>0.867</v>
       </c>
       <c r="D58" t="n">
-        <v>-61.274</v>
+        <v>-53.9654</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3676</v>
+        <v>-0.0914</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ASNA61-ILEA167</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.875</v>
+        <v>0.869</v>
       </c>
       <c r="D59" t="n">
-        <v>-60.2577</v>
+        <v>-32.0042</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3753</v>
+        <v>-0.1022</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TYRA194-ILEA256</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.959</v>
+        <v>0.756</v>
       </c>
       <c r="D60" t="n">
-        <v>-53.5695</v>
+        <v>-35.8721</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4034</v>
+        <v>-0.1272</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PHEA20-ALAA23</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.666</v>
+        <v>0.969</v>
       </c>
       <c r="D61" t="n">
-        <v>-15.8008</v>
+        <v>-33.0893</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4212</v>
+        <v>-0.1362</v>
       </c>
     </row>
     <row r="62">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>THRA169-GLUA234</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5504,786 +5504,786 @@
         <v>-54.1588</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.475</v>
+        <v>-0.1411</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SERA105-LYSA113</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.707</v>
+        <v>0.66</v>
       </c>
       <c r="D63" t="n">
-        <v>-28.0327</v>
+        <v>-41.2027</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4978</v>
+        <v>-0.1507</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRPA97-ALAA116</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.975</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>-38.8201</v>
+        <v>-15.8008</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5145</v>
+        <v>-0.1665</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRPA123-PHEA131</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.955</v>
       </c>
       <c r="D65" t="n">
-        <v>-28.0327</v>
+        <v>-62.8986</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5183</v>
+        <v>-0.1709</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LEUA204-CYSA206</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.576</v>
+        <v>0.731</v>
       </c>
       <c r="D66" t="n">
-        <v>-10.7442</v>
+        <v>-69.0772</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5233</v>
+        <v>-0.1714</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GLUA26-LYSA252</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="D67" t="n">
-        <v>-69.6995</v>
+        <v>-32.0042</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5238</v>
+        <v>-0.1785</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ALAA77-LEUA90</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.506</v>
+        <v>0.716</v>
       </c>
       <c r="D68" t="n">
-        <v>-34.0875</v>
+        <v>-61.274</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5306</v>
+        <v>-0.2127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ASNA61-PHEA66</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.675</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>-22.1713</v>
+        <v>-54.9035</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.5446</v>
+        <v>-0.2305</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TYRA114-LYSA149</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.702</v>
+        <v>0.575</v>
       </c>
       <c r="D70" t="n">
-        <v>-46.4387</v>
+        <v>-62.1128</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5603</v>
+        <v>-0.2374</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ASPA190-SERA259</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>-54.9035</v>
+        <v>-26.3674</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.611</v>
+        <v>-0.2515</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ASPA32-LYSA111</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="D72" t="n">
-        <v>-56.5914</v>
+        <v>-61.0553</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.6143</v>
+        <v>-0.2649</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TYRA51-ALAA77</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.788</v>
+        <v>0.613</v>
       </c>
       <c r="D73" t="n">
-        <v>-42.7317</v>
+        <v>-37.433</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.6506999999999999</v>
+        <v>-0.3091</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TYRA51-ALAA54</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.623</v>
+        <v>0.977</v>
       </c>
       <c r="D74" t="n">
-        <v>-15.8008</v>
+        <v>-63.9916</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.6665</v>
+        <v>-0.3239</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TYRA51-ARGA182</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.955</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>-62.8986</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7828000000000001</v>
+        <v>-0.3285</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VALA135-LEUA204</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.774</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>-54.9035</v>
+        <v>-40.6484</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7945</v>
+        <v>-0.3435</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SERA188-GLUA214</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.679</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>-42.7317</v>
+        <v>-56.5914</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7985</v>
+        <v>-0.3486</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ASPA32-ALAA248</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.989</v>
       </c>
       <c r="D78" t="n">
-        <v>-69.13509999999999</v>
+        <v>-41.2027</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8</v>
+        <v>-0.3615</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TYRA128-LYSA133</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.95</v>
+        <v>0.835</v>
       </c>
       <c r="D79" t="n">
-        <v>-22.1713</v>
+        <v>-40.0682</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8028</v>
+        <v>-0.4047</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ASNA67-GLNA92</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.951</v>
+        <v>0.985</v>
       </c>
       <c r="D80" t="n">
-        <v>-42.2426</v>
+        <v>-55.083</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8263</v>
+        <v>-0.4088</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SERA166-ALAA174</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.916</v>
+        <v>0.951</v>
       </c>
       <c r="D81" t="n">
-        <v>-28.0327</v>
+        <v>-42.2426</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.845</v>
+        <v>-0.4404</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ASPA75-ARGA89</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.635</v>
+        <v>0.533</v>
       </c>
       <c r="D82" t="n">
-        <v>-35.0117</v>
+        <v>-15.8008</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.944</v>
+        <v>-0.4959</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ALAA54-ALAA77</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.989</v>
+        <v>0.988</v>
       </c>
       <c r="D83" t="n">
-        <v>-41.2027</v>
+        <v>-24.445</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.0338</v>
+        <v>-0.5527</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GLNA28-GLNA249</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.724</v>
       </c>
       <c r="D84" t="n">
-        <v>-69.4205</v>
+        <v>-35.0117</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.0363</v>
+        <v>-0.6659</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>THRA199-ARGA246</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.947</v>
+        <v>0.506</v>
       </c>
       <c r="D85" t="n">
-        <v>-50.1152</v>
+        <v>-34.0875</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.0371</v>
+        <v>-0.6721</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GLUA69-GLNA92</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.66</v>
+        <v>0.576</v>
       </c>
       <c r="D86" t="n">
-        <v>-41.2027</v>
+        <v>-10.7442</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.0374</v>
+        <v>-0.7183</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TYRA191-LYSA213</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.919</v>
       </c>
       <c r="D87" t="n">
-        <v>-40.6484</v>
+        <v>-26.3674</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.0801</v>
+        <v>-0.7213000000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LYSA80-THRA87</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.758</v>
+        <v>0.875</v>
       </c>
       <c r="D88" t="n">
-        <v>-26.3674</v>
+        <v>-60.2577</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.0829</v>
+        <v>-0.7305</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ALAA38-ALAA258</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.945</v>
+        <v>0.572</v>
       </c>
       <c r="D89" t="n">
-        <v>-69.3639</v>
+        <v>-45.3212</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.2134</v>
+        <v>-0.7418</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ASPA72-ILEA91</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>-38.8201</v>
+        <v>-41.2027</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.2486</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SERA105-GLUA117</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.969</v>
+        <v>0.95</v>
       </c>
       <c r="D91" t="n">
-        <v>-33.0893</v>
+        <v>-22.1713</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.2555</v>
+        <v>-0.7643</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GLUA106-TRPA245</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.929</v>
+        <v>0.959</v>
       </c>
       <c r="D92" t="n">
-        <v>-63.6378</v>
+        <v>-53.5695</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.3161</v>
+        <v>-0.8415</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ARGA27-GLUA205</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.926</v>
       </c>
       <c r="D93" t="n">
-        <v>-66.72199999999999</v>
+        <v>-19.3885</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.3652</v>
+        <v>-0.9294</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HISA17-LYSA24</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.919</v>
+        <v>0.597</v>
       </c>
       <c r="D94" t="n">
-        <v>-26.3674</v>
+        <v>-28.0327</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.4185</v>
+        <v>-0.976</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LYSA154-LEUA157</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.766</v>
+        <v>0.53</v>
       </c>
       <c r="D95" t="n">
-        <v>-15.8008</v>
+        <v>-66.1485</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.4394</v>
+        <v>-0.9871</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SERA197-GLUA205</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.901</v>
       </c>
       <c r="D96" t="n">
-        <v>-28.0327</v>
+        <v>-61.4891</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.4614</v>
+        <v>-1.0052</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ASPA190-LYSA213</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.962</v>
       </c>
       <c r="D97" t="n">
-        <v>-41.2027</v>
+        <v>-37.433</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.4705</v>
+        <v>-1.0832</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ASPA72-ARGA89</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.962</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>-37.433</v>
+        <v>-28.0327</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.503</v>
+        <v>-1.1012</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HISA64-ASNA244</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.579</v>
+        <v>0.65</v>
       </c>
       <c r="D99" t="n">
-        <v>-66.8614</v>
+        <v>-41.7335</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.5882</v>
+        <v>-1.1633</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ASNA232-GLUA236</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.926</v>
+        <v>0.635</v>
       </c>
       <c r="D100" t="n">
-        <v>-19.3885</v>
+        <v>-35.0117</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.6755</v>
+        <v>-1.1882</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LYSA154-VALA218</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.663</v>
       </c>
       <c r="D101" t="n">
-        <v>-53.9654</v>
+        <v>-29.5016</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.8401</v>
+        <v>-1.2357</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GLUA106-GLUA117</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.825</v>
+        <v>0.675</v>
       </c>
       <c r="D102" t="n">
-        <v>-32.0042</v>
+        <v>-22.1713</v>
       </c>
       <c r="E102" t="n">
-        <v>-2.2365</v>
+        <v>-1.4226</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TYRA7-ASNA244</t>
+          <t>odict_keys(['TRPA123-ALAA134', 'HISA96-TRPA245', 'ALAA65-HISA94', 'ALAA54-ALAA77', 'TYRA40-LYSA261', 'HISA17-ALAA23', 'TYRA114-PHEA147', 'ASPA190-PHEA260', 'TYRA88-HISA122', 'TYRA128-ALAA134', 'SERA99-VALA242', 'TRPA97-ALAA116', 'THRA169-GLUA234', 'SERA105-GLUA117', 'VALA218-GLNA222', 'VALA31-LEUA251', 'ASPA72-ARGA89', 'TYRA194-ILEA256', 'ALAA153-SERA219', 'TYRA51-ARGA182', 'ASNA67-GLNA92', 'TYRA128-LYSA133', 'THRA199-ARGA246', 'ALAA38-ALAA258', 'TRPA16-ALAA23', 'ILEA167-ALAA174', 'ASPA32-ALAA248', 'TRPA123-PHEA131', 'ASPA72-ILEA91', 'ALAA115-VALA150', 'GLUA106-TRPA245', 'ASNA232-GLUA236', 'ASNA67-HISA94', 'LEUA60-SERA173', 'TYRA88-ALAA142', 'HISA17-LYSA24', 'SERA105-PHEA147', 'SERA166-ALAA174', 'ILEA167-LYSA172', 'PHEA231-META241', 'ILEA59-PHEA176', 'PHEA93-LEUA120', 'TYRA7-ASNA244', 'ASNA61-ILEA167', 'TRPA5-TRPA16', 'VALA161-LYSA225', 'THRA35-ASPA110', 'ASPA41-LYSA257', 'VALA150-SERA220', 'SERA99-ASPA243', 'PHEA95-ALAA116', 'GLUA106-GLUA117', 'VALA78-THRA87', 'GLNA28-GLNA249', 'SERA197-GLUA205', 'GLUA26-LYSA252', 'ARGA27-GLUA205', 'ASPA75-VALA78', 'TYRA51-ALAA77', 'VALA135-LEUA204', 'LYSA154-LEUA157', 'LYSA80-THRA87', 'ARGA227-VALA242', 'ASNA124-ALAA134', 'TYRA191-ILEA210', 'LEUA44-SERA259', 'VALA135-CYSA206', 'LEUA57-ASPA71', 'ARGA58-SERA173', 'TRPA192-ILEA256', 'SERA105-LYSA113', 'TYRA114-LYSA149', 'ASPA190-LYSA213', 'SERA29-SERA197', 'LYSA154-VALA218', 'ASPA190-SERA259', 'SERA188-GLUA214', 'ASNA61-PHEA66', 'PHEA20-ALAA23', 'ILEA59-VALA68', 'LEUA47-LEUA189', 'GLUA69-GLNA92', 'THRA108-LYSA113', 'HISA119-VALA143', 'ASPA75-ARGA89', 'VALA161-GLNA222', 'TYRA51-ALAA54', 'THRA193-ILEA210', 'ASNA230-GLUA238', 'HISA64-ASNA244', 'LEUA204-CYSA206', 'SERA56-PHEA179', 'LEUA90-HISA122', 'ASPA32-LYSA111', 'SERA219-GLNA222', 'TYRA191-LYSA213', 'LEUA148-VALA218', 'ASPA34-THRA37', 'SERA29-THRA199', 'TYRA191-LEUA212', 'ALAA77-LEUA90', 'GLNA53-LYSA76'])</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.88</v>
+        <v>0.947</v>
       </c>
       <c r="D103" t="n">
-        <v>-70.29219999999999</v>
+        <v>-50.1152</v>
       </c>
       <c r="E103" t="n">
-        <v>-2.4116</v>
+        <v>-1.5265</v>
       </c>
     </row>
   </sheetData>
